--- a/src/main/java/com/testdata/equartz.xlsx
+++ b/src/main/java/com/testdata/equartz.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView windowWidth="16240" windowHeight="5670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="Registration" sheetId="2" r:id="rId2"/>
     <sheet name="login1" sheetId="3" r:id="rId3"/>
     <sheet name="searchFuctionality" sheetId="4" r:id="rId4"/>
+    <sheet name="AddAddress" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:F2"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>username</t>
   </si>
@@ -77,6 +79,36 @@
   </si>
   <si>
     <t>samsung</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Searchhere</t>
+  </si>
+  <si>
+    <t>vyshnavi batchu</t>
+  </si>
+  <si>
+    <t>markapur</t>
+  </si>
+  <si>
+    <t>523 316</t>
+  </si>
+  <si>
+    <t>radham bazar</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1450,7 @@
   <sheetPr/>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1448,4 +1480,69 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="19.6363636363636" customWidth="1"/>
+    <col min="3" max="3" width="23.6363636363636" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="20.1818181818182" customWidth="1"/>
+    <col min="6" max="6" width="17.6363636363636" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>9010475050</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>